--- a/data/outputs/management_altmetric/110.xlsx
+++ b/data/outputs/management_altmetric/110.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE6"/>
+  <dimension ref="A1:CF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1009,6 +1014,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1254,6 +1262,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1511,6 +1522,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1764,6 +1778,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2017,6 +2034,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>3.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
